--- a/data/trans_orig/P19C01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>53142</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42225</v>
+        <v>40409</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66292</v>
+        <v>65157</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2775165046796351</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2205040110664037</v>
+        <v>0.2110213191347398</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.346187040801335</v>
+        <v>0.3402598589296494</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -765,19 +765,19 @@
         <v>72821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59430</v>
+        <v>59590</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87572</v>
+        <v>87246</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3618954605382501</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2953459404566863</v>
+        <v>0.2961397652464769</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4351996852198817</v>
+        <v>0.4335827766474454</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>121</v>
@@ -786,19 +786,19 @@
         <v>125964</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>109013</v>
+        <v>107099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145419</v>
+        <v>144545</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3207511772979024</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2775870226378813</v>
+        <v>0.2727138991356758</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.370289652745844</v>
+        <v>0.3680652562028602</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>138351</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>125201</v>
+        <v>126336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149268</v>
+        <v>151084</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7224834953203649</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.653812959198665</v>
+        <v>0.6597401410703518</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7794959889335967</v>
+        <v>0.7889786808652607</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>124</v>
@@ -836,19 +836,19 @@
         <v>128401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>113650</v>
+        <v>113976</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141792</v>
+        <v>141632</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6381045394617498</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5648003147801184</v>
+        <v>0.5664172233525545</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7046540595433136</v>
+        <v>0.7038602347535231</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>261</v>
@@ -857,19 +857,19 @@
         <v>266752</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>247297</v>
+        <v>248171</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>283703</v>
+        <v>285617</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6792488227020975</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6297103472541561</v>
+        <v>0.6319347437971398</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7224129773621191</v>
+        <v>0.7272861008643241</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>121979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>103683</v>
+        <v>103537</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140932</v>
+        <v>141173</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2976871711870321</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2530349502241473</v>
+        <v>0.2526803626958683</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3439408321597842</v>
+        <v>0.3445305427986945</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -982,19 +982,19 @@
         <v>130844</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110800</v>
+        <v>113065</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151165</v>
+        <v>151496</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.296564361616877</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2511320384869367</v>
+        <v>0.2562655795485651</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3426205675737599</v>
+        <v>0.3433710522455812</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>243</v>
@@ -1003,19 +1003,19 @@
         <v>252824</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>226635</v>
+        <v>226712</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>280073</v>
+        <v>282136</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2971050209988285</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2663299921804938</v>
+        <v>0.2664198644551588</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3291266447924466</v>
+        <v>0.331551482213405</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>287777</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>268824</v>
+        <v>268583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>306073</v>
+        <v>306219</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7023128288129679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6560591678402158</v>
+        <v>0.6554694572013054</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7469650497758527</v>
+        <v>0.7473196373041316</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>309</v>
@@ -1053,19 +1053,19 @@
         <v>310357</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290036</v>
+        <v>289705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>330401</v>
+        <v>328136</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.703435638383123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6573794324262402</v>
+        <v>0.656628947754419</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7488679615130633</v>
+        <v>0.7437344204514349</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>579</v>
@@ -1074,19 +1074,19 @@
         <v>598133</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>570884</v>
+        <v>568821</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>624322</v>
+        <v>624245</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7028949790011715</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6708733552075538</v>
+        <v>0.6684485177865952</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7336700078195062</v>
+        <v>0.7335801355448414</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>56703</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43503</v>
+        <v>44658</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71168</v>
+        <v>69390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2397209025054213</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1839176374593942</v>
+        <v>0.1887982367568304</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3008730693390007</v>
+        <v>0.2933584826179755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -1199,19 +1199,19 @@
         <v>73094</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59458</v>
+        <v>58871</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87814</v>
+        <v>89242</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2530910878269844</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2058763496288925</v>
+        <v>0.2038440113360921</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3040595682215085</v>
+        <v>0.3090018619441161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -1220,19 +1220,19 @@
         <v>129797</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111162</v>
+        <v>111777</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>149120</v>
+        <v>149801</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.247071129559118</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2115994655418617</v>
+        <v>0.212769921956459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.283852658626674</v>
+        <v>0.2851486205459529</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>179834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>165369</v>
+        <v>167147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>193034</v>
+        <v>191879</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7602790974945787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6991269306609992</v>
+        <v>0.7066415173820246</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8160823625406057</v>
+        <v>0.8112017632431697</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>215</v>
@@ -1270,19 +1270,19 @@
         <v>215712</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>200992</v>
+        <v>199564</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>229348</v>
+        <v>229935</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7469089121730157</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6959404317784913</v>
+        <v>0.6909981380558838</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7941236503711073</v>
+        <v>0.7961559886639078</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>390</v>
@@ -1291,19 +1291,19 @@
         <v>395546</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>376223</v>
+        <v>375542</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>414181</v>
+        <v>413566</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.752928870440882</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7161473413733256</v>
+        <v>0.7148513794540471</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.788400534458138</v>
+        <v>0.7872300780435408</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>98245</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>82578</v>
+        <v>83800</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113357</v>
+        <v>114714</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3672300750079031</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3086685676844333</v>
+        <v>0.313233273818986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4237146568275043</v>
+        <v>0.428789082296134</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -1416,19 +1416,19 @@
         <v>105328</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89214</v>
+        <v>89118</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122004</v>
+        <v>121575</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3516407639776078</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2978423881878472</v>
+        <v>0.2975212943387529</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4073130515745428</v>
+        <v>0.4058813375194577</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>207</v>
@@ -1437,19 +1437,19 @@
         <v>203574</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>181593</v>
+        <v>181276</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>224573</v>
+        <v>226382</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3589955184173867</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3202336475489406</v>
+        <v>0.3196745478109753</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3960265125386726</v>
+        <v>0.3992174794222303</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>169286</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>154174</v>
+        <v>152817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>184953</v>
+        <v>183731</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6327699249920969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5762853431724958</v>
+        <v>0.5712109177038659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6913314323155667</v>
+        <v>0.6867667261810141</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>197</v>
@@ -1487,19 +1487,19 @@
         <v>194206</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>177530</v>
+        <v>177959</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>210320</v>
+        <v>210416</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6483592360223922</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5926869484254573</v>
+        <v>0.5941186624805422</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7021576118121531</v>
+        <v>0.7024787056612471</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>369</v>
@@ -1508,19 +1508,19 @@
         <v>363491</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>342492</v>
+        <v>340683</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>385472</v>
+        <v>385789</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6410044815826133</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6039734874613274</v>
+        <v>0.6007825205777697</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6797663524510593</v>
+        <v>0.6803254521890247</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>67646</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54192</v>
+        <v>55512</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80611</v>
+        <v>80438</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3972679246968653</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3182538409201931</v>
+        <v>0.326006058402758</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4734087316237193</v>
+        <v>0.4723942804412999</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -1633,19 +1633,19 @@
         <v>74855</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>60633</v>
+        <v>61772</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88613</v>
+        <v>89159</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4304339917893182</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3486519775537127</v>
+        <v>0.3552049696690411</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5095467542600549</v>
+        <v>0.5126851277069304</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -1654,19 +1654,19 @@
         <v>142501</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>124030</v>
+        <v>123556</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>159906</v>
+        <v>160837</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4140257500521171</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3603596096539903</v>
+        <v>0.3589828515630177</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4645949307729444</v>
+        <v>0.4672988536490771</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>102632</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89667</v>
+        <v>89840</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116086</v>
+        <v>114766</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6027320753031347</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5265912683762808</v>
+        <v>0.5276057195587001</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.681746159079807</v>
+        <v>0.673993941597242</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -1704,19 +1704,19 @@
         <v>99051</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85293</v>
+        <v>84747</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113273</v>
+        <v>112134</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5695660082106818</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4904532457399451</v>
+        <v>0.4873148722930696</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6513480224462872</v>
+        <v>0.6447950303309589</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>198</v>
@@ -1725,19 +1725,19 @@
         <v>201683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>184278</v>
+        <v>183347</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>220154</v>
+        <v>220628</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5859742499478829</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5354050692270556</v>
+        <v>0.5327011463509229</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6396403903460097</v>
+        <v>0.6410171484369822</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>46172</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35310</v>
+        <v>34907</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58615</v>
+        <v>59016</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2439494047849753</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.186560736755767</v>
+        <v>0.1844321295333669</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3096872265510239</v>
+        <v>0.3118091500035612</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -1850,19 +1850,19 @@
         <v>64980</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52117</v>
+        <v>52973</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78775</v>
+        <v>79837</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3177697708238755</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2548660862215869</v>
+        <v>0.2590505901205559</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3852312353496349</v>
+        <v>0.39042396555025</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -1871,19 +1871,19 @@
         <v>111152</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>94687</v>
+        <v>93639</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>129045</v>
+        <v>128472</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2822860939076351</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2404690831263956</v>
+        <v>0.2378093042831946</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3277274398707266</v>
+        <v>0.3262725536209885</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>143098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>130655</v>
+        <v>130254</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>153960</v>
+        <v>154363</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7560505952150247</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6903127734489769</v>
+        <v>0.6881908499964388</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8134392632442331</v>
+        <v>0.815567870466633</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>136</v>
@@ -1921,19 +1921,19 @@
         <v>139508</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>125713</v>
+        <v>124651</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152371</v>
+        <v>151515</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6822302291761244</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6147687646503647</v>
+        <v>0.6095760344497491</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7451339137784131</v>
+        <v>0.7409494098794438</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>278</v>
@@ -1942,19 +1942,19 @@
         <v>282606</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>264713</v>
+        <v>265286</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>299071</v>
+        <v>300119</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7177139060923649</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6722725601292736</v>
+        <v>0.6737274463790116</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7595309168736046</v>
+        <v>0.7621906957168053</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>102438</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>86420</v>
+        <v>84616</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>122472</v>
+        <v>122015</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2206165065158353</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.186119072268154</v>
+        <v>0.1822341890107672</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2637629988157865</v>
+        <v>0.2627790446210109</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>136</v>
@@ -2067,19 +2067,19 @@
         <v>139727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120673</v>
+        <v>120319</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>162679</v>
+        <v>160883</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2590571902576809</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2237295216885821</v>
+        <v>0.2230745391894688</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3016095946009672</v>
+        <v>0.2982814664757189</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>233</v>
@@ -2088,19 +2088,19 @@
         <v>242165</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>215595</v>
+        <v>214048</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>270303</v>
+        <v>271228</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2412738938203212</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2148022041631711</v>
+        <v>0.2132605167734068</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2693091781852172</v>
+        <v>0.2702303162203435</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>361887</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>341853</v>
+        <v>342310</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>377905</v>
+        <v>379709</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7793834934841647</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.736237001184214</v>
+        <v>0.7372209553789891</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8138809277318462</v>
+        <v>0.817765810989233</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>388</v>
@@ -2138,19 +2138,19 @@
         <v>399641</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>376689</v>
+        <v>378485</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>418695</v>
+        <v>419049</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7409428097423191</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6983904053990324</v>
+        <v>0.701718533524281</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7762704783114178</v>
+        <v>0.7769254608105313</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>745</v>
@@ -2159,19 +2159,19 @@
         <v>761527</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>733389</v>
+        <v>732464</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>788097</v>
+        <v>789644</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7587261061796787</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7306908218147828</v>
+        <v>0.7297696837796565</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7851977958368291</v>
+        <v>0.7867394832265932</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>186005</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>165206</v>
+        <v>164115</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>208582</v>
+        <v>208589</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.352913701310183</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3134503889284824</v>
+        <v>0.3113820940680301</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3957505289040687</v>
+        <v>0.3957624949588571</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>187</v>
@@ -2284,19 +2284,19 @@
         <v>198413</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>176626</v>
+        <v>176291</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>223155</v>
+        <v>220346</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3354518469968044</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2986162135062669</v>
+        <v>0.2980495958966894</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3772816243547034</v>
+        <v>0.3725318423838144</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>373</v>
@@ -2305,19 +2305,19 @@
         <v>384418</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>351338</v>
+        <v>352089</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>418004</v>
+        <v>417989</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3436798889341521</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3141053585158424</v>
+        <v>0.3147770588062191</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3737066435437775</v>
+        <v>0.3736925403505944</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>341050</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>318473</v>
+        <v>318466</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>361849</v>
+        <v>362940</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6470862986898169</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6042494710959313</v>
+        <v>0.6042375050411428</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6865496110715176</v>
+        <v>0.6886179059319698</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>377</v>
@@ -2355,19 +2355,19 @@
         <v>393068</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>368326</v>
+        <v>371135</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>414855</v>
+        <v>415190</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6645481530031956</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6227183756452968</v>
+        <v>0.6274681576161856</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7013837864937336</v>
+        <v>0.7019504041033104</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>714</v>
@@ -2376,19 +2376,19 @@
         <v>734118</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>700532</v>
+        <v>700547</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>767198</v>
+        <v>766447</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6563201110658479</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6262933564562225</v>
+        <v>0.6263074596494056</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6858946414841576</v>
+        <v>0.6852229411937808</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>732331</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>685686</v>
+        <v>687084</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>781512</v>
+        <v>778086</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2981505877052048</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2791603656560006</v>
+        <v>0.2797294812321364</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3181734517913822</v>
+        <v>0.3167788364700802</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>839</v>
@@ -2501,19 +2501,19 @@
         <v>860064</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>812745</v>
+        <v>808493</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>912029</v>
+        <v>905981</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3138913274493892</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2966215097468581</v>
+        <v>0.2950697197079569</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3328566081873888</v>
+        <v>0.330649202192282</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1552</v>
@@ -2522,19 +2522,19 @@
         <v>1592395</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1525362</v>
+        <v>1528448</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1663069</v>
+        <v>1657594</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3064507485432453</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2935505156213891</v>
+        <v>0.2941442396808467</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3200516812709652</v>
+        <v>0.3189980000893584</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1723914</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1674733</v>
+        <v>1678159</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1770559</v>
+        <v>1769161</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7018494122947952</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6818265482086178</v>
+        <v>0.68322116352992</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7208396343439993</v>
+        <v>0.7202705187678636</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1839</v>
@@ -2572,19 +2572,19 @@
         <v>1879942</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1827977</v>
+        <v>1834025</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1927261</v>
+        <v>1931513</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6861086725506108</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.667143391812611</v>
+        <v>0.6693507978077184</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7033784902531418</v>
+        <v>0.7049302802920434</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3534</v>
@@ -2593,19 +2593,19 @@
         <v>3603857</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3533183</v>
+        <v>3538658</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3670890</v>
+        <v>3667804</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6935492514567546</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6799483187290348</v>
+        <v>0.6810019999106416</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7064494843786109</v>
+        <v>0.7058557603191533</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>46788</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35109</v>
+        <v>35504</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60631</v>
+        <v>60204</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1867339442720727</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1401236826837497</v>
+        <v>0.1417001189822585</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2419819166348275</v>
+        <v>0.2402781965037846</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -2962,19 +2962,19 @@
         <v>43955</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32332</v>
+        <v>32678</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56938</v>
+        <v>56772</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1756234993906952</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1291841964722062</v>
+        <v>0.130564328486666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2274970036264335</v>
+        <v>0.2268322017914576</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -2983,19 +2983,19 @@
         <v>90743</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>73991</v>
+        <v>73900</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109862</v>
+        <v>108560</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1811818204087939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1477335985904832</v>
+        <v>0.1475518612591579</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2193538344926825</v>
+        <v>0.2167551584056563</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>203772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>189929</v>
+        <v>190356</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>215451</v>
+        <v>215056</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8132660557279273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7580180833651717</v>
+        <v>0.7597218034962151</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8598763173162502</v>
+        <v>0.8582998810177415</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -3033,19 +3033,19 @@
         <v>206326</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>193343</v>
+        <v>193509</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>217949</v>
+        <v>217603</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8243765006093048</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7725029963735665</v>
+        <v>0.7731677982085423</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8708158035277936</v>
+        <v>0.8694356715133339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>377</v>
@@ -3054,19 +3054,19 @@
         <v>410099</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>390980</v>
+        <v>392282</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>426851</v>
+        <v>426942</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8188181795912061</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7806461655073176</v>
+        <v>0.7832448415943437</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8522664014095168</v>
+        <v>0.8524481387408422</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>118771</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101076</v>
+        <v>101290</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>138891</v>
+        <v>139039</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2923020783592237</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.248752589514025</v>
+        <v>0.2492796685345571</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.341817909639538</v>
+        <v>0.3421826276447624</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -3179,19 +3179,19 @@
         <v>127509</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>108943</v>
+        <v>108768</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147388</v>
+        <v>149574</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2919005493960374</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2493983521411205</v>
+        <v>0.2489961960745867</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3374075903217307</v>
+        <v>0.3424117725032673</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>227</v>
@@ -3200,19 +3200,19 @@
         <v>246281</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>219511</v>
+        <v>220711</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>276119</v>
+        <v>272957</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.292094052507986</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2603443520567998</v>
+        <v>0.261768459001277</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3274832557311474</v>
+        <v>0.3237325499632237</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>287559</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>267439</v>
+        <v>267291</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>305254</v>
+        <v>305040</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7076979216407763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6581820903604619</v>
+        <v>0.6578173723552375</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.751247410485975</v>
+        <v>0.7507203314654428</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>284</v>
@@ -3250,19 +3250,19 @@
         <v>309316</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>289437</v>
+        <v>287251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>327882</v>
+        <v>328057</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7080994506039625</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6625924096782693</v>
+        <v>0.6575882274967327</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7506016478588795</v>
+        <v>0.7510038039254133</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>556</v>
@@ -3271,19 +3271,19 @@
         <v>596874</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>567036</v>
+        <v>570198</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>623644</v>
+        <v>622444</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.707905947492014</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6725167442688524</v>
+        <v>0.6762674500367761</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7396556479432</v>
+        <v>0.738231540998723</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>98665</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83487</v>
+        <v>81769</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114932</v>
+        <v>115046</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3359791987682046</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2842940350825489</v>
+        <v>0.2784437724880918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3913707656135961</v>
+        <v>0.3917610258875526</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>110</v>
@@ -3396,19 +3396,19 @@
         <v>118345</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>101689</v>
+        <v>99854</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137851</v>
+        <v>136209</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3611594340577315</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3103290378965186</v>
+        <v>0.3047306937825645</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4206877573179988</v>
+        <v>0.4156743831939095</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>210</v>
@@ -3417,19 +3417,19 @@
         <v>217010</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>193513</v>
+        <v>193391</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>242228</v>
+        <v>241172</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3492585927360131</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3114416350649084</v>
+        <v>0.3112453182390169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3898440647518281</v>
+        <v>0.3881455625711323</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>194999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178732</v>
+        <v>178618</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>210177</v>
+        <v>211895</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6640208012317954</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6086292343864039</v>
+        <v>0.6082389741124475</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7157059649174509</v>
+        <v>0.7215562275119085</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>194</v>
@@ -3467,19 +3467,19 @@
         <v>209336</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>189830</v>
+        <v>191472</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>225992</v>
+        <v>227827</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6388405659422686</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5793122426820012</v>
+        <v>0.5843256168060909</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6896709621034814</v>
+        <v>0.6952693062174355</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>383</v>
@@ -3488,19 +3488,19 @@
         <v>404335</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>379117</v>
+        <v>380173</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>427832</v>
+        <v>427954</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.650741407263987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6101559352481718</v>
+        <v>0.6118544374288677</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6885583649350916</v>
+        <v>0.6887546817609831</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>93583</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79073</v>
+        <v>76981</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112213</v>
+        <v>111597</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2989130769391244</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2525676610758528</v>
+        <v>0.245885164981938</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3584192791543052</v>
+        <v>0.3564516485611863</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>116</v>
@@ -3613,19 +3613,19 @@
         <v>122841</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103163</v>
+        <v>106656</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140208</v>
+        <v>143157</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.358329191210524</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3009276346725189</v>
+        <v>0.3111189748097518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4089889258215413</v>
+        <v>0.4175920813301463</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>198</v>
@@ -3634,19 +3634,19 @@
         <v>216423</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190700</v>
+        <v>191197</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>242542</v>
+        <v>243579</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3299680768791052</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2907489824470322</v>
+        <v>0.2915073755666415</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3697895220925</v>
+        <v>0.371370962566109</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>219494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>200864</v>
+        <v>201480</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>234004</v>
+        <v>236096</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7010869230608756</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6415807208456948</v>
+        <v>0.6435483514388137</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7474323389241472</v>
+        <v>0.754114835018062</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>210</v>
@@ -3684,19 +3684,19 @@
         <v>219974</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>202607</v>
+        <v>199658</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>239652</v>
+        <v>236159</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6416708087894759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5910110741784587</v>
+        <v>0.5824079186698538</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6990723653274808</v>
+        <v>0.6888810251902483</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>417</v>
@@ -3705,19 +3705,19 @@
         <v>439468</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>413349</v>
+        <v>412312</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>465191</v>
+        <v>464694</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6700319231208948</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6302104779075</v>
+        <v>0.6286290374338909</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7092510175529677</v>
+        <v>0.7084926244333585</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>75562</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61875</v>
+        <v>60794</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90371</v>
+        <v>89713</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3934355877838553</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3221685160469533</v>
+        <v>0.3165377091269774</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4705377265838414</v>
+        <v>0.4671165212291774</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -3830,19 +3830,19 @@
         <v>89858</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75996</v>
+        <v>77058</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>102811</v>
+        <v>103886</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4617981247542037</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3905596271765947</v>
+        <v>0.3960186043785857</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5283689786995912</v>
+        <v>0.533895344759551</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>156</v>
@@ -3851,19 +3851,19 @@
         <v>165420</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>146527</v>
+        <v>144710</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>185753</v>
+        <v>183840</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4278399199773066</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.378974651946694</v>
+        <v>0.3742769953000868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4804283929351576</v>
+        <v>0.475481780011772</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>116496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>101687</v>
+        <v>102345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>130183</v>
+        <v>131264</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6065644122161447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5294622734161585</v>
+        <v>0.5328834787708226</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6778314839530467</v>
+        <v>0.6834622908730227</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>101</v>
@@ -3901,19 +3901,19 @@
         <v>104724</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91771</v>
+        <v>90696</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>118586</v>
+        <v>117524</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5382018752457963</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4716310213004087</v>
+        <v>0.466104655240449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6094403728234052</v>
+        <v>0.6039813956214143</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>208</v>
@@ -3922,19 +3922,19 @@
         <v>221220</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>200887</v>
+        <v>202800</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>240113</v>
+        <v>241930</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5721600800226935</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5195716070648424</v>
+        <v>0.524518219988228</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.621025348053306</v>
+        <v>0.6257230046999133</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>75715</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60849</v>
+        <v>62665</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>92093</v>
+        <v>92070</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3028923097688516</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2434223433111372</v>
+        <v>0.2506871049097835</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3684111332325579</v>
+        <v>0.3683193552277832</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -4047,19 +4047,19 @@
         <v>104032</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>88630</v>
+        <v>89087</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>121740</v>
+        <v>119836</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.392826619785374</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3346678967948106</v>
+        <v>0.3363915834964361</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4596897847983913</v>
+        <v>0.4525006347864917</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>169</v>
@@ -4068,19 +4068,19 @@
         <v>179747</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>159010</v>
+        <v>157974</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>201215</v>
+        <v>201236</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3491571686842502</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.308875514541277</v>
+        <v>0.3068635533307011</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3908579994775541</v>
+        <v>0.3908990022165856</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>174258</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157880</v>
+        <v>157903</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>189124</v>
+        <v>187308</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6971076902311484</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6315888667674421</v>
+        <v>0.6316806447722169</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7565776566888629</v>
+        <v>0.7493128950902165</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>155</v>
@@ -4118,19 +4118,19 @@
         <v>160798</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>143090</v>
+        <v>144994</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>176200</v>
+        <v>175743</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.607173380214626</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5403102152016086</v>
+        <v>0.5474993652135083</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6653321032051894</v>
+        <v>0.6636084165035639</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>323</v>
@@ -4139,19 +4139,19 @@
         <v>335056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>313588</v>
+        <v>313567</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>355793</v>
+        <v>356829</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6508428313157498</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6091420005224458</v>
+        <v>0.6091009977834143</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.691124485458723</v>
+        <v>0.6931364466692989</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>175713</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>153197</v>
+        <v>154565</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>197282</v>
+        <v>201357</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3055398280757721</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2663871508175322</v>
+        <v>0.2687658405542321</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3430444856059163</v>
+        <v>0.3501305116142372</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>229</v>
@@ -4264,19 +4264,19 @@
         <v>247580</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>220373</v>
+        <v>222562</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>274744</v>
+        <v>275369</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3955037853620268</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3520402196420051</v>
+        <v>0.3555381665352741</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4388966192980849</v>
+        <v>0.4398956898589254</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>390</v>
@@ -4285,19 +4285,19 @@
         <v>423293</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>387821</v>
+        <v>389343</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>459271</v>
+        <v>455961</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3524279248951633</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3228942794999628</v>
+        <v>0.3241614097505727</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3823826239259961</v>
+        <v>0.3796264948448962</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>399378</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>377809</v>
+        <v>373734</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>421894</v>
+        <v>420526</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6944601719242279</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6569555143940842</v>
+        <v>0.6498694883857632</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7336128491824677</v>
+        <v>0.731234159445768</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>343</v>
@@ -4335,19 +4335,19 @@
         <v>378407</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>351243</v>
+        <v>350618</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>405614</v>
+        <v>403425</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6044962146379732</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.561103380701915</v>
+        <v>0.5601043101410749</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6479597803579948</v>
+        <v>0.6444618334647263</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>719</v>
@@ -4356,19 +4356,19 @@
         <v>777785</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>741807</v>
+        <v>745117</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>813257</v>
+        <v>811735</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6475720751048367</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6176173760740039</v>
+        <v>0.6203735051551037</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6771057205000373</v>
+        <v>0.6758385902494273</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>172970</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>149684</v>
+        <v>151139</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>196623</v>
+        <v>196528</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2728645283670515</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2361305363643394</v>
+        <v>0.2384252312081779</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.310177803766615</v>
+        <v>0.3100279693331074</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>200</v>
@@ -4481,19 +4481,19 @@
         <v>222493</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>198400</v>
+        <v>196513</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>248437</v>
+        <v>249967</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.316808653551984</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2825029177595302</v>
+        <v>0.2798156144822146</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3537500299601714</v>
+        <v>0.3559297440797178</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>362</v>
@@ -4502,19 +4502,19 @@
         <v>395463</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>359307</v>
+        <v>359857</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>430803</v>
+        <v>430614</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.295961163917408</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.268902425589869</v>
+        <v>0.2693139262707195</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3224090543202344</v>
+        <v>0.3222680326286304</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>460935</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>437282</v>
+        <v>437377</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>484221</v>
+        <v>482766</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7271354716329484</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6898221962333849</v>
+        <v>0.6899720306668925</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7638694636356603</v>
+        <v>0.7615747687918221</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>446</v>
@@ -4552,19 +4552,19 @@
         <v>479801</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>453857</v>
+        <v>452327</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>503894</v>
+        <v>505781</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6831913464480159</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6462499700398284</v>
+        <v>0.6440702559202824</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7174970822404697</v>
+        <v>0.7201843855177857</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>868</v>
@@ -4573,19 +4573,19 @@
         <v>940736</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>905396</v>
+        <v>905585</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>976892</v>
+        <v>976342</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7040388360825921</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6775909456797657</v>
+        <v>0.6777319673713696</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.731097574410131</v>
+        <v>0.7306860737292804</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>857768</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>809319</v>
+        <v>807332</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>909252</v>
+        <v>911963</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2942944623819768</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2776719134491493</v>
+        <v>0.276990284205782</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3119583184025893</v>
+        <v>0.3128883131519708</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>998</v>
@@ -4698,19 +4698,19 @@
         <v>1076613</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1015211</v>
+        <v>1023692</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1132705</v>
+        <v>1132972</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3422932368269344</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3227712233560475</v>
+        <v>0.3254677268507369</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3601267187145408</v>
+        <v>0.3602115577954447</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1799</v>
@@ -4719,19 +4719,19 @@
         <v>1934381</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1860693</v>
+        <v>1866330</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2012370</v>
+        <v>2013530</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3192072433900422</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3070473860152975</v>
+        <v>0.3079776473292895</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3320768718290228</v>
+        <v>0.332268222296162</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2056891</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2005407</v>
+        <v>2002696</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2105340</v>
+        <v>2107327</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7057055376180232</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6880416815974109</v>
+        <v>0.6871116868480294</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7223280865508507</v>
+        <v>0.723009715794218</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1916</v>
@@ -4769,19 +4769,19 @@
         <v>2068682</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2012590</v>
+        <v>2012323</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2130084</v>
+        <v>2121603</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6577067631730655</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6398732812854592</v>
+        <v>0.6397884422045553</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6772287766439525</v>
+        <v>0.6745322731492631</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3851</v>
@@ -4790,19 +4790,19 @@
         <v>4125572</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4047583</v>
+        <v>4046423</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4199260</v>
+        <v>4193623</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6807927566099577</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6679231281709773</v>
+        <v>0.6677317777038383</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6929526139847025</v>
+        <v>0.6920223526707105</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>59517</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46582</v>
+        <v>46476</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74690</v>
+        <v>74917</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.242710844770239</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.189962425743711</v>
+        <v>0.1895302943646948</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3045879891991429</v>
+        <v>0.3055099968300596</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -5159,19 +5159,19 @@
         <v>77566</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64921</v>
+        <v>63655</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93027</v>
+        <v>92336</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3148821984845734</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2635471170165194</v>
+        <v>0.2584107583663622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3776450279295052</v>
+        <v>0.3748410577655939</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>129</v>
@@ -5180,19 +5180,19 @@
         <v>137083</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>116338</v>
+        <v>117905</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>157030</v>
+        <v>158381</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2788784609097772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.236674771097603</v>
+        <v>0.2398622074582005</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3194579560010959</v>
+        <v>0.3222068481732936</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>185701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>170528</v>
+        <v>170301</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198636</v>
+        <v>198742</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.757289155229761</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.695412010800857</v>
+        <v>0.6944900031699406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.810037574256289</v>
+        <v>0.8104697056353053</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>162</v>
@@ -5230,19 +5230,19 @@
         <v>168768</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>153307</v>
+        <v>153998</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>181413</v>
+        <v>182679</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6851178015154267</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6223549720704947</v>
+        <v>0.6251589422344059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7364528829834807</v>
+        <v>0.7415892416336377</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>331</v>
@@ -5251,19 +5251,19 @@
         <v>354468</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>334521</v>
+        <v>333170</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>375213</v>
+        <v>373646</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7211215390902228</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6805420439989042</v>
+        <v>0.6777931518267066</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7633252289023972</v>
+        <v>0.7601377925417995</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>97938</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82081</v>
+        <v>81864</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117552</v>
+        <v>116164</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2696797668269392</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2260163174693822</v>
+        <v>0.2254180513214869</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3236862711466513</v>
+        <v>0.3198668661739844</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -5376,19 +5376,19 @@
         <v>135054</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>115830</v>
+        <v>116032</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>152670</v>
+        <v>154655</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3433633970832418</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2944889203831473</v>
+        <v>0.2950003082065922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3881500737645218</v>
+        <v>0.3931968696180416</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>219</v>
@@ -5397,19 +5397,19 @@
         <v>232992</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>205648</v>
+        <v>209555</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>257953</v>
+        <v>260505</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3079904721434758</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2718436648908364</v>
+        <v>0.2770094623436371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.340985156819809</v>
+        <v>0.3443590673134207</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>265227</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>245613</v>
+        <v>247001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>281084</v>
+        <v>281301</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7303202331730608</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6763137288533485</v>
+        <v>0.6801331338260153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7739836825306178</v>
+        <v>0.774581948678513</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>244</v>
@@ -5447,19 +5447,19 @@
         <v>258273</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>240657</v>
+        <v>238672</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>277497</v>
+        <v>277295</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6566366029167582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6118499262354783</v>
+        <v>0.6068031303819582</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7055110796168527</v>
+        <v>0.7049996917934077</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>495</v>
@@ -5468,19 +5468,19 @@
         <v>523500</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>498539</v>
+        <v>495987</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>550844</v>
+        <v>546937</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6920095278565241</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6590148431801912</v>
+        <v>0.6556409326865794</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7281563351091637</v>
+        <v>0.7229905376563631</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>109347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92380</v>
+        <v>93441</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>124262</v>
+        <v>125392</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.376398907276196</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.317996886202095</v>
+        <v>0.3216481693116815</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4277422696140145</v>
+        <v>0.4316318362057576</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -5593,19 +5593,19 @@
         <v>121057</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>104966</v>
+        <v>104956</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139795</v>
+        <v>138423</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3933440489121978</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3410603403763668</v>
+        <v>0.3410288876966295</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4542282369913035</v>
+        <v>0.4497710934393653</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>233</v>
@@ -5614,19 +5614,19 @@
         <v>230403</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>208280</v>
+        <v>207812</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>253622</v>
+        <v>256081</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3851158733700871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3481378325592701</v>
+        <v>0.347355625448834</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4239258347372057</v>
+        <v>0.4280353359909825</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>181160</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>166245</v>
+        <v>165115</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>198127</v>
+        <v>197066</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.623601092723804</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5722577303859855</v>
+        <v>0.5683681637942424</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.682003113797905</v>
+        <v>0.6783518306883185</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>186</v>
@@ -5664,19 +5664,19 @@
         <v>186707</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>167969</v>
+        <v>169341</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>202798</v>
+        <v>202808</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6066559510878022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5457717630086966</v>
+        <v>0.5502289065606346</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6589396596236332</v>
+        <v>0.6589711123033706</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>375</v>
@@ -5685,19 +5685,19 @@
         <v>367867</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>344648</v>
+        <v>342189</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>389990</v>
+        <v>390458</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.614884126629913</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5760741652627942</v>
+        <v>0.5719646640090176</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6518621674407299</v>
+        <v>0.6526443745511659</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>100129</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84306</v>
+        <v>83223</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116812</v>
+        <v>117465</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3033772426399198</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2554358977049825</v>
+        <v>0.2521536634874705</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3539250601395036</v>
+        <v>0.3559032216803056</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -5810,19 +5810,19 @@
         <v>93645</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>77196</v>
+        <v>76752</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111429</v>
+        <v>111633</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2684304528164527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2212814648792113</v>
+        <v>0.2200063902093199</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3194075647234004</v>
+        <v>0.3199937594860296</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>183</v>
@@ -5831,19 +5831,19 @@
         <v>193774</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>169312</v>
+        <v>170648</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>217842</v>
+        <v>218809</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.285419632220354</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2493891224949716</v>
+        <v>0.2513562609132474</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3208708233268134</v>
+        <v>0.3222951743088248</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>229918</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>213235</v>
+        <v>212582</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>245741</v>
+        <v>246824</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6966227573600802</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6460749398604965</v>
+        <v>0.6440967783196944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.744564102295018</v>
+        <v>0.7478463365125295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>235</v>
@@ -5881,19 +5881,19 @@
         <v>255216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>237432</v>
+        <v>237228</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>271665</v>
+        <v>272109</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7315695471835473</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6805924352765996</v>
+        <v>0.6800062405139702</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7787185351207887</v>
+        <v>0.7799936097906799</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>454</v>
@@ -5902,19 +5902,19 @@
         <v>485134</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>461066</v>
+        <v>460099</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>509596</v>
+        <v>508260</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.714580367779646</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6791291766731866</v>
+        <v>0.6777048256911752</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7506108775050284</v>
+        <v>0.7486437390867525</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>77206</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66565</v>
+        <v>66213</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86444</v>
+        <v>86308</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6475799437156662</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5583323469665893</v>
+        <v>0.5553733042660605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7250686739969044</v>
+        <v>0.7239266583006031</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -6027,19 +6027,19 @@
         <v>98855</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85935</v>
+        <v>87824</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108597</v>
+        <v>108826</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6794141416872221</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5906153309213277</v>
+        <v>0.6036025551829921</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7463702047053447</v>
+        <v>0.7479458150137992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>178</v>
@@ -6048,19 +6048,19 @@
         <v>176061</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>160852</v>
+        <v>161813</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>190535</v>
+        <v>190633</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6650770574223916</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6076251316467268</v>
+        <v>0.6112558964923537</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7197553729395857</v>
+        <v>0.7201239583027955</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>42016</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32778</v>
+        <v>32914</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52657</v>
+        <v>53009</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3524200562843338</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2749313260030954</v>
+        <v>0.276073341699397</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4416676530334106</v>
+        <v>0.4446266957339395</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -6098,19 +6098,19 @@
         <v>46645</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36903</v>
+        <v>36674</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59565</v>
+        <v>57676</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3205858583127779</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2536297952946554</v>
+        <v>0.2520541849862007</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4093846690786724</v>
+        <v>0.3963974448170079</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>92</v>
@@ -6119,19 +6119,19 @@
         <v>88661</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74187</v>
+        <v>74089</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103870</v>
+        <v>102909</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3349229425776084</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2802446270604141</v>
+        <v>0.2798760416972045</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3923748683532727</v>
+        <v>0.3887441035076463</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>91854</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>77073</v>
+        <v>77533</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107185</v>
+        <v>106645</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3931844527388486</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3299138410619809</v>
+        <v>0.3318848085649708</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4588107174768816</v>
+        <v>0.456496824177644</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>111</v>
@@ -6244,19 +6244,19 @@
         <v>111201</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>95099</v>
+        <v>96390</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127516</v>
+        <v>127132</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.449957921677509</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.384801317354976</v>
+        <v>0.3900254197251947</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5159743990258556</v>
+        <v>0.5144203477548824</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>202</v>
@@ -6265,19 +6265,19 @@
         <v>203055</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>181341</v>
+        <v>182949</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>223637</v>
+        <v>225221</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4223696094946296</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.377201322537939</v>
+        <v>0.3805474260533574</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4651800240387687</v>
+        <v>0.4684758614796508</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>141761</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>126430</v>
+        <v>126970</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>156542</v>
+        <v>156082</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6068155472611514</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5411892825231184</v>
+        <v>0.5435031758223561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6700861589380194</v>
+        <v>0.6681151914350296</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>129</v>
@@ -6315,19 +6315,19 @@
         <v>135936</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>119621</v>
+        <v>120005</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152038</v>
+        <v>150747</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.550042078322491</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4840256009741443</v>
+        <v>0.4855796522451173</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.615198682645024</v>
+        <v>0.6099745802748051</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>268</v>
@@ -6336,19 +6336,19 @@
         <v>277698</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>257116</v>
+        <v>255532</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>299412</v>
+        <v>297804</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5776303905053704</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5348199759612313</v>
+        <v>0.5315241385203492</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6227986774620611</v>
+        <v>0.6194525739466427</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>220363</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>197557</v>
+        <v>197427</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>241520</v>
+        <v>243240</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4982123646319439</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4466520194673306</v>
+        <v>0.4463565059076434</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5460451876389577</v>
+        <v>0.5499353353118743</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>232</v>
@@ -6461,19 +6461,19 @@
         <v>240720</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>219707</v>
+        <v>218923</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>264685</v>
+        <v>262976</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4942403653309629</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4510971952026626</v>
+        <v>0.4494861138144828</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5434448503301248</v>
+        <v>0.5399353204314314</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>424</v>
@@ -6482,19 +6482,19 @@
         <v>461083</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>428254</v>
+        <v>430823</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>490174</v>
+        <v>494884</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4961307493171833</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4608060570613873</v>
+        <v>0.4635706503780094</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5274325641014049</v>
+        <v>0.5325013848784217</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>221944</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>200787</v>
+        <v>199067</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244750</v>
+        <v>244880</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5017876353680562</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4539548123610425</v>
+        <v>0.4500646646881257</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5533479805326696</v>
+        <v>0.5536434940923568</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>229</v>
@@ -6532,19 +6532,19 @@
         <v>246331</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>222366</v>
+        <v>224075</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>267344</v>
+        <v>268128</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5057596346690371</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4565551496698752</v>
+        <v>0.4600646795685678</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5489028047973374</v>
+        <v>0.5505138861855171</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>423</v>
@@ -6553,19 +6553,19 @@
         <v>468275</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>439184</v>
+        <v>434474</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>501104</v>
+        <v>498535</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5038692506828167</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4725674358985951</v>
+        <v>0.4674986151215785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5391939429386127</v>
+        <v>0.5364293496219907</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>330051</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>304996</v>
+        <v>303830</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>355423</v>
+        <v>356512</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5155014637903471</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4763682768376462</v>
+        <v>0.4745472789251914</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5551304506014701</v>
+        <v>0.5568301321252181</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>341</v>
@@ -6678,19 +6678,19 @@
         <v>365574</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>337932</v>
+        <v>336941</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>394566</v>
+        <v>393563</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5287898591365792</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4888066846351117</v>
+        <v>0.4873728856701237</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.570725386507469</v>
+        <v>0.5692753088156647</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>664</v>
@@ -6699,19 +6699,19 @@
         <v>695625</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>661486</v>
+        <v>661389</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>735249</v>
+        <v>734047</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5224005816298591</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4967629506920121</v>
+        <v>0.4966901567443699</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.552157730652716</v>
+        <v>0.551254729399864</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>310201</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>284829</v>
+        <v>283740</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>335256</v>
+        <v>336422</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4844985362096529</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4448695493985298</v>
+        <v>0.4431698678747818</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5236317231623537</v>
+        <v>0.5254527210748083</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>294</v>
@@ -6749,19 +6749,19 @@
         <v>325767</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>296775</v>
+        <v>297778</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>353409</v>
+        <v>354400</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4712101408634208</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.429274613492531</v>
+        <v>0.4307246911843353</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5111933153648882</v>
+        <v>0.5126271143298764</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>587</v>
@@ -6770,19 +6770,19 @@
         <v>635968</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>596344</v>
+        <v>597546</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>670107</v>
+        <v>670204</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4775994183701409</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4478422693472841</v>
+        <v>0.4487452706001361</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5032370493079882</v>
+        <v>0.5033098432556301</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1086404</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1034513</v>
+        <v>1034027</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1136373</v>
+        <v>1141847</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4077582905099349</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3882823218108031</v>
+        <v>0.388099892840855</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4265129713493905</v>
+        <v>0.4285677614802746</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1199</v>
@@ -6895,19 +6895,19 @@
         <v>1243673</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1193645</v>
+        <v>1190281</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1296136</v>
+        <v>1294569</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4337412670711646</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4162937794800607</v>
+        <v>0.4151205462784604</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4520381453239011</v>
+        <v>0.4514918782636505</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2232</v>
@@ -6916,19 +6916,19 @@
         <v>2330077</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2254485</v>
+        <v>2245166</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2412837</v>
+        <v>2404502</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4212264967055541</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4075612024512862</v>
+        <v>0.4058764407552984</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4361876694674531</v>
+        <v>0.4346809050436202</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1577929</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1527960</v>
+        <v>1522486</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1629820</v>
+        <v>1630306</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.592241709490065</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5734870286506095</v>
+        <v>0.5714322385197254</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.611717678189197</v>
+        <v>0.611900107159145</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1528</v>
@@ -6966,19 +6966,19 @@
         <v>1623642</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1571179</v>
+        <v>1572746</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1673670</v>
+        <v>1677034</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5662587329288354</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5479618546760989</v>
+        <v>0.5485081217363496</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5837062205199394</v>
+        <v>0.5848794537215398</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3025</v>
@@ -6987,19 +6987,19 @@
         <v>3201571</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3118811</v>
+        <v>3127146</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3277163</v>
+        <v>3286482</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5787735032944459</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5638123305325469</v>
+        <v>0.5653190949563798</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5924387975487139</v>
+        <v>0.5941235592447016</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>276962</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>266434</v>
+        <v>266279</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>284463</v>
+        <v>285030</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9203921159639789</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.88540709990041</v>
+        <v>0.8848924603936899</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9453219739863501</v>
+        <v>0.9472057880222499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>501</v>
@@ -7356,19 +7356,19 @@
         <v>293927</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>287124</v>
+        <v>287068</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>298674</v>
+        <v>298611</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9497929342058833</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9278118548476466</v>
+        <v>0.9276304272562468</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9651329590057268</v>
+        <v>0.9649280913278334</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>790</v>
@@ -7377,19 +7377,19 @@
         <v>570888</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>559885</v>
+        <v>559471</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>580183</v>
+        <v>580742</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9352983662762778</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.91727151193215</v>
+        <v>0.9165936111878527</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.950526479872126</v>
+        <v>0.9514424373669297</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>23955</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16454</v>
+        <v>15887</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34483</v>
+        <v>34638</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07960788403602131</v>
+        <v>0.0796078840360213</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0546780260136499</v>
+        <v>0.05279421197775053</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1145929000995895</v>
+        <v>0.1151075396063105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -7427,19 +7427,19 @@
         <v>15537</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10790</v>
+        <v>10853</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22340</v>
+        <v>22396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05020706579411671</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03486704099427324</v>
+        <v>0.03507190867216654</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07218814515235335</v>
+        <v>0.07236957274375329</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -7448,19 +7448,19 @@
         <v>39493</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30198</v>
+        <v>29639</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50496</v>
+        <v>50910</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06470163372372216</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04947352012787391</v>
+        <v>0.04855756263307034</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08272848806784974</v>
+        <v>0.08340638881214735</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>210788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>185987</v>
+        <v>184654</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>239101</v>
+        <v>240300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.406904482382471</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3590292710969721</v>
+        <v>0.3564549444596919</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4615602157582221</v>
+        <v>0.4638736394885324</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>286</v>
@@ -7573,19 +7573,19 @@
         <v>225345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>205041</v>
+        <v>204815</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>247093</v>
+        <v>245862</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4238907395095978</v>
+        <v>0.4238907395095977</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.385697530987413</v>
+        <v>0.3852712398786143</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4647990297846453</v>
+        <v>0.4624829767728022</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>443</v>
@@ -7594,19 +7594,19 @@
         <v>436133</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>403281</v>
+        <v>403452</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>473305</v>
+        <v>475742</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4155075208460179</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3842090606742774</v>
+        <v>0.3843713203081612</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4509212958447857</v>
+        <v>0.4532432791596478</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>307240</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>278927</v>
+        <v>277728</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>332041</v>
+        <v>333374</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.593095517617529</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5384397842417781</v>
+        <v>0.5361263605114677</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.640970728903028</v>
+        <v>0.6435450555403081</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>410</v>
@@ -7644,19 +7644,19 @@
         <v>306267</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>284519</v>
+        <v>285750</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>326571</v>
+        <v>326797</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5761092604904023</v>
+        <v>0.5761092604904022</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5352009702153546</v>
+        <v>0.5375170232271984</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.614302469012587</v>
+        <v>0.6147287601213863</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>624</v>
@@ -7665,19 +7665,19 @@
         <v>613507</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>576335</v>
+        <v>573898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>646359</v>
+        <v>646188</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5844924791539821</v>
+        <v>0.5844924791539823</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5490787041552144</v>
+        <v>0.5467567208403522</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6157909393257227</v>
+        <v>0.6156286796918387</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>124013</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>106885</v>
+        <v>106907</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140172</v>
+        <v>140174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4130575618299567</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3560103291893999</v>
+        <v>0.3560808204069471</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4668807349681103</v>
+        <v>0.4668874322245199</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>189</v>
@@ -7790,19 +7790,19 @@
         <v>142626</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>126456</v>
+        <v>127347</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157539</v>
+        <v>157546</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4173962519586087</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3700737021191816</v>
+        <v>0.3726814895314195</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4610386858048626</v>
+        <v>0.4610592447616636</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>310</v>
@@ -7811,19 +7811,19 @@
         <v>266639</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>241806</v>
+        <v>243045</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>289397</v>
+        <v>288363</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4153670636330801</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.376682791068454</v>
+        <v>0.3786124959901315</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4508204795651682</v>
+        <v>0.4492084729499873</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>176218</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>160059</v>
+        <v>160057</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>193346</v>
+        <v>193324</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5869424381700431</v>
+        <v>0.5869424381700432</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5331192650318898</v>
+        <v>0.5331125677754801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6439896708106002</v>
+        <v>0.643919179593053</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>328</v>
@@ -7861,19 +7861,19 @@
         <v>199079</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>184166</v>
+        <v>184159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>215249</v>
+        <v>214358</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5826037480413914</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5389613141951377</v>
+        <v>0.5389407552383363</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6299262978808187</v>
+        <v>0.6273185104685803</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>552</v>
@@ -7882,19 +7882,19 @@
         <v>375296</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>352538</v>
+        <v>353572</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>400129</v>
+        <v>398890</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5846329363669199</v>
+        <v>0.5846329363669198</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.549179520434832</v>
+        <v>0.5507915270500128</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6233172089315463</v>
+        <v>0.6213875040098691</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>121164</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99777</v>
+        <v>99464</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>145856</v>
+        <v>146888</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3268187810842756</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2691310242032864</v>
+        <v>0.2682857670868637</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3934200680693845</v>
+        <v>0.3962046224217908</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>175</v>
@@ -8007,19 +8007,19 @@
         <v>135470</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>116805</v>
+        <v>118069</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154686</v>
+        <v>157079</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3228462064389231</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2783634962128402</v>
+        <v>0.2813749332606394</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3686387503427651</v>
+        <v>0.3743425933233378</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>261</v>
@@ -8028,19 +8028,19 @@
         <v>256635</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>225758</v>
+        <v>225224</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>290571</v>
+        <v>288665</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3247096625561984</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2856426340455233</v>
+        <v>0.2849673370762233</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3676482208035449</v>
+        <v>0.3652366980958161</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>249574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>224882</v>
+        <v>223850</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>270961</v>
+        <v>271274</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6731812189157245</v>
+        <v>0.6731812189157246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6065799319306157</v>
+        <v>0.6037953775782089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7308689757967137</v>
+        <v>0.7317142329131362</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>419</v>
@@ -8078,19 +8078,19 @@
         <v>284143</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>264927</v>
+        <v>262534</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>302808</v>
+        <v>301544</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6771537935610769</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6313612496572349</v>
+        <v>0.6256574066766621</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7216365037871598</v>
+        <v>0.7186250667393607</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>621</v>
@@ -8099,19 +8099,19 @@
         <v>533716</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>499780</v>
+        <v>501686</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>564593</v>
+        <v>565127</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6752903374438015</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.632351779196455</v>
+        <v>0.634763301904184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7143573659544766</v>
+        <v>0.7150326629237767</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>165062</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156899</v>
+        <v>157242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172328</v>
+        <v>172484</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8719638007289702</v>
+        <v>0.8719638007289704</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8288422268568328</v>
+        <v>0.8306566775272277</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9103468495341097</v>
+        <v>0.9111744955612995</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>428</v>
@@ -8224,19 +8224,19 @@
         <v>198505</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>191645</v>
+        <v>191012</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>203849</v>
+        <v>203438</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9031075311743785</v>
+        <v>0.9031075311743784</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8718990662576512</v>
+        <v>0.8690204565988242</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9274220867708199</v>
+        <v>0.9255531013017375</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>655</v>
@@ -8245,19 +8245,19 @@
         <v>363567</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>353541</v>
+        <v>353491</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>372931</v>
+        <v>372893</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8886966947104095</v>
+        <v>0.8886966947104092</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8641902256147336</v>
+        <v>0.8640672813986403</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9115868216682884</v>
+        <v>0.9114935291171838</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>24237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16971</v>
+        <v>16815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32400</v>
+        <v>32057</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1280361992710297</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08965315046589016</v>
+        <v>0.08882550443870044</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1711577731431673</v>
+        <v>0.1693433224727721</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -8295,19 +8295,19 @@
         <v>21297</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15953</v>
+        <v>16364</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28157</v>
+        <v>28790</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09689246882562157</v>
+        <v>0.09689246882562154</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07257791322918013</v>
+        <v>0.07444689869826292</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1281009337423493</v>
+        <v>0.1309795434011762</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>85</v>
@@ -8316,19 +8316,19 @@
         <v>45534</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36170</v>
+        <v>36208</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>55560</v>
+        <v>55610</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1113033052895907</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08841317833171142</v>
+        <v>0.08850647088281634</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1358097743852665</v>
+        <v>0.1359327186013597</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>104288</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>90695</v>
+        <v>90626</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118639</v>
+        <v>117709</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4175930145881936</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3631667000124554</v>
+        <v>0.3628892650532854</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4750603165246777</v>
+        <v>0.4713362607169984</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>187</v>
@@ -8441,19 +8441,19 @@
         <v>129515</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>117495</v>
+        <v>116068</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>143727</v>
+        <v>142292</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5148481919571058</v>
+        <v>0.514848191957106</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4670649270022644</v>
+        <v>0.4613927251525402</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5713436730345065</v>
+        <v>0.5656378542203372</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>308</v>
@@ -8462,19 +8462,19 @@
         <v>233802</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>215452</v>
+        <v>214879</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>252446</v>
+        <v>252530</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.466397614407458</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4297926852498141</v>
+        <v>0.4286492517825451</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.503589463358513</v>
+        <v>0.5037563168963273</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>145447</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>131096</v>
+        <v>132026</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159040</v>
+        <v>159109</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5824069854118064</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5249396834753223</v>
+        <v>0.5286637392830016</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6368332999875447</v>
+        <v>0.6371107349467147</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -8512,19 +8512,19 @@
         <v>122045</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>107833</v>
+        <v>109268</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>134065</v>
+        <v>135492</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4851518080428942</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4286563269654932</v>
+        <v>0.4343621457796629</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5329350729977356</v>
+        <v>0.5386072748474597</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>476</v>
@@ -8533,19 +8533,19 @@
         <v>267492</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>248848</v>
+        <v>248764</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>285842</v>
+        <v>286415</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5336023855925418</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.496410536641487</v>
+        <v>0.4962436831036727</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5702073147501859</v>
+        <v>0.571350748217455</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>411121</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>382652</v>
+        <v>380363</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>438883</v>
+        <v>438606</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.588466686363358</v>
+        <v>0.5884666863633579</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5477175566908268</v>
+        <v>0.5444411080633247</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6282050063719972</v>
+        <v>0.6278072573852582</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>511</v>
@@ -8658,19 +8658,19 @@
         <v>418648</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>394373</v>
+        <v>393468</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>445852</v>
+        <v>441134</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5646832965363283</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5319403778675995</v>
+        <v>0.5307189990715528</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6013759574835147</v>
+        <v>0.5950120539514643</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>844</v>
@@ -8679,19 +8679,19 @@
         <v>829770</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>791811</v>
+        <v>786121</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>867138</v>
+        <v>865213</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.576221918984513</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5498617145216005</v>
+        <v>0.5459106585642223</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.602171338856581</v>
+        <v>0.6008349238101978</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>287510</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>259748</v>
+        <v>260025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>315979</v>
+        <v>318268</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4115333136366422</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3717949936280032</v>
+        <v>0.3721927426147417</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4522824433091734</v>
+        <v>0.4555588919366752</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>412</v>
@@ -8729,19 +8729,19 @@
         <v>322738</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>295534</v>
+        <v>300252</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>347013</v>
+        <v>347918</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4353167034636717</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3986240425164853</v>
+        <v>0.4049879460485357</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4680596221324005</v>
+        <v>0.4692810009284472</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>661</v>
@@ -8750,19 +8750,19 @@
         <v>610248</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>572880</v>
+        <v>574805</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>648207</v>
+        <v>653897</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4237780810154869</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3978286611434191</v>
+        <v>0.3991650761898021</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4501382854783997</v>
+        <v>0.4540893414357777</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>525933</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>500379</v>
+        <v>500390</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>552379</v>
+        <v>551844</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6820992085059547</v>
+        <v>0.6820992085059545</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6489583604267134</v>
+        <v>0.6489728177654414</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7163986281170555</v>
+        <v>0.7157043477835542</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>758</v>
@@ -8875,19 +8875,19 @@
         <v>599759</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>579224</v>
+        <v>575920</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>620661</v>
+        <v>621254</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7401630430239008</v>
+        <v>0.7401630430239007</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7148201874089166</v>
+        <v>0.7107427507573393</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7659580603061436</v>
+        <v>0.7666892975418609</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1246</v>
@@ -8896,19 +8896,19 @@
         <v>1125692</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1092295</v>
+        <v>1090094</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1160787</v>
+        <v>1158817</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7118518433489078</v>
+        <v>0.7118518433489077</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6907325587810571</v>
+        <v>0.6893408877614647</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.734044758655013</v>
+        <v>0.7327993889245171</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>245117</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>218671</v>
+        <v>219206</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>270671</v>
+        <v>270660</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3179007914940453</v>
+        <v>0.3179007914940454</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2836013718829446</v>
+        <v>0.2842956522164456</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3510416395732866</v>
+        <v>0.3510271822345581</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>281</v>
@@ -8946,19 +8946,19 @@
         <v>210548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>189646</v>
+        <v>189053</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>231083</v>
+        <v>234387</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2598369569760993</v>
+        <v>0.2598369569760992</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2340419396938566</v>
+        <v>0.2333107024581392</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2851798125910834</v>
+        <v>0.2892572492426609</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>537</v>
@@ -8967,19 +8967,19 @@
         <v>455665</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>420570</v>
+        <v>422540</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>489062</v>
+        <v>491263</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2881481566510924</v>
+        <v>0.2881481566510923</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2659552413449869</v>
+        <v>0.2672006110754829</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3092674412189427</v>
+        <v>0.3106591122385345</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1939330</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1873676</v>
+        <v>1873421</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2000523</v>
+        <v>2002211</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5706211980050084</v>
+        <v>0.5706211980050083</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5513034086912294</v>
+        <v>0.5512283116340027</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5886264517079237</v>
+        <v>0.589123078260266</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3035</v>
@@ -9092,19 +9092,19 @@
         <v>2143796</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2087126</v>
+        <v>2090694</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2188064</v>
+        <v>2195409</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5913189460291317</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5756877819708106</v>
+        <v>0.5766719293248871</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6035292271817231</v>
+        <v>0.6055551472652901</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4857</v>
@@ -9113,19 +9113,19 @@
         <v>4083126</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3993767</v>
+        <v>4000646</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4162089</v>
+        <v>4170474</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5813042536817647</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.568582488074257</v>
+        <v>0.5695617549412899</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5925460956111541</v>
+        <v>0.5937397270546808</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1459299</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1398106</v>
+        <v>1396418</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1524953</v>
+        <v>1525208</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4293788019949916</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4113735482920763</v>
+        <v>0.4108769217397341</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4486965913087708</v>
+        <v>0.4487716883659974</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2182</v>
@@ -9163,19 +9163,19 @@
         <v>1481652</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1437384</v>
+        <v>1430039</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1538322</v>
+        <v>1534754</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4086810539708682</v>
+        <v>0.4086810539708681</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3964707728182769</v>
+        <v>0.3944448527347099</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4243122180291892</v>
+        <v>0.4233280706751129</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3614</v>
@@ -9184,19 +9184,19 @@
         <v>2940951</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2861988</v>
+        <v>2853603</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3030310</v>
+        <v>3023431</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4186957463182352</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.407453904388846</v>
+        <v>0.4062602729453191</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4314175119257428</v>
+        <v>0.4304382450587099</v>
       </c>
     </row>
     <row r="30">
